--- a/petro-web-scraping/petronasfinalfiles/mesraoutlets-up-to-all.xlsx
+++ b/petro-web-scraping/petronasfinalfiles/mesraoutlets-up-to-all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,16 +434,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outlet_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>outlet_address</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>locator_town</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>JALAN MAAROF, BANGSAR</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -457,10 +468,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BUKIT BANDAR RAYA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lot Pt 313, Hs (D) 310, Persimpangan Jalan Maarof 5, 58000 Bangsar, Kuala Lumpur</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
@@ -468,12 +485,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>JALAN BANGSAR</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lot Pt 313, Hs (D) 310, Persimpangan Jalan Maarof 5, 58000 Bangsar, Kuala Lumpur</t>
+          <t>Lot 100, Seksyen 96-A, Jln Bangsar, 59200 , Kuala Lumpur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -483,12 +502,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NPE PANTAI DALAM</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lot 100, Seksyen 96-A, Jln Bangsar, 59200 , Kuala Lumpur</t>
+          <t>Ch.1520-1710, Off New Pantai Expressway (Npe) Near Pantai Dalam Interchange, 59200 , Kuala Lumpur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -498,12 +519,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NPE TAMAN DESA</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch.1520-1710, Off New Pantai Expressway (Npe) Near Pantai Dalam Interchange, 59200 , Kuala Lumpur</t>
+          <t>Ch 11760-Ch 11950, Off New Pantai Expressway (Npe) Near Taman Desa (West Bound), 52700 , Kuala Lumpur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -513,12 +536,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BDR SRI PERMAISURI</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ch 11760-Ch 11950, Off New Pantai Expressway (Npe) Near Taman Desa (West Bound), 52700 , Kuala Lumpur</t>
+          <t>Lot Pt4282 Jalan 5/105 Bandar Sri Permaisuri, 56100 Kuala Lumpur, Kuala Lumpur</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -528,12 +553,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SPRINT HIGHWAY</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lot Pt4282 Jalan 5/105 Bandar Sri Permaisuri, 56100 Kuala Lumpur, Kuala Lumpur</t>
+          <t>Lot 52985 Lebuhraya Sprint Mukim Kuala Lumpur, 47800 Damansara, Kuala Lumpur</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -543,12 +570,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>COCHRANE PERKASA</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lot 52985 Lebuhraya Sprint Mukim Kuala Lumpur, 47800 Damansara, Kuala Lumpur</t>
+          <t>Lot 1246, Jalan Cochrane, Mukim Ampang, 55100 , Kuala Lumpur</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -558,12 +587,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SRI HARTAMAS</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lot 1246, Jalan Cochrane, Mukim Ampang, 55100 , Kuala Lumpur</t>
+          <t>Lot 48653, Jalan 1/70A, Taman Sri Hartamas, 50480 Sri Hartamas, Kuala Lumpur</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -573,12 +604,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TAMAN TENAGA</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lot 48653, Jalan 1/70A, Taman Sri Hartamas, 50480 Sri Hartamas, Kuala Lumpur</t>
+          <t>Lot 3643, Batu 3 1/2 ,Taman Tenaga, 52100 Cheras, Kuala Lumpur</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -588,12 +621,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>JALAN KLANG LAMA</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lot 3643, Batu 3 1/2 ,Taman Tenaga, 52100 Cheras, Kuala Lumpur</t>
+          <t>Lot 2711, Batu 4 3/4, Jalan Kelang Lama, 58000 , Kuala Lumpur</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -603,12 +638,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SUNGAI BESI</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lot 2711, Batu 4 3/4, Jalan Kelang Lama, 58000 , Kuala Lumpur</t>
+          <t>Lot Pt 4416, Jln Sungai Besi, 57100 Salak South, Kuala Lumpur</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -618,12 +655,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>KM 13.8 BESRAYA HIGHWAY (KAJANG BD) (SALAK JAYA)</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lot Pt 4416, Jln Sungai Besi, 57100 Salak South, Kuala Lumpur</t>
+          <t>Jalan Sungai Besi, Salak Selatan, 57100 Kuala Lumpur, Kuala Lumpur</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -633,12 +672,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TAMAN MALURI</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jalan Sungai Besi, Salak Selatan, 57100 Kuala Lumpur, Kuala Lumpur</t>
+          <t>Lot Pt 128, Jalan Kg Pandan, Taman Maluri, 54200 Ampang, Kuala Lumpur</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -648,12 +689,14 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>KAMPUNG BARU</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lot Pt 128, Jalan Kg Pandan, Taman Maluri, 54200 Ampang, Kuala Lumpur</t>
+          <t>No.177, Jln Raja Muda Abdul Aziz, 50300 Kampung Baru, Kuala Lumpur</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -663,12 +706,14 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LOT 353 CHERAS</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>No.177, Jln Raja Muda Abdul Aziz, 50300 Kampung Baru, Kuala Lumpur</t>
+          <t>Lot 353, Batu 3, Jalan Cheras, 56100 Cheras, Kuala Lumpur</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -678,12 +723,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>JALAN TUN RAZAK</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lot 353, Batu 3, Jalan Cheras, 56100 Cheras, Kuala Lumpur</t>
+          <t>Lot 25, Ct 8901, Seksyen 87 Jalan Tun Razak, 50400 , Kuala Lumpur</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -693,12 +740,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>EAST WEST LINK</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Lot 25, Ct 8901, Seksyen 87 Jalan Tun Razak, 50400 , Kuala Lumpur</t>
+          <t>Lot Pt 8060, L/Raya Hubungan Timur Barat (Connaught H/Way), Cheras, 57100 Kuala Lumpur, Kuala Lumpur</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -708,12 +757,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>JLN BANDAR P GUDANG</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lot Pt 8060, L/Raya Hubungan Timur Barat (Connaught H/Way), Cheras, 57100 Kuala Lumpur, Kuala Lumpur</t>
+          <t>Lot Ptd 69990 Hs(D) 124966, Mukim Plentong, Jalan Bandar, 81700 Pasir Gudang, Johor</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -723,555 +774,1275 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TAMAN BUKIT DAHLIA</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Lot Ptd 166495 Mukim Plentong, Taman Bukit Dahlia, 81100 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PASIR PUTIH P GUDANG</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Lot Ptb 200695, Hs(D) 461341, Mukim Plentong, 81700 Pasir Gudang, Johor</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>KOTA MASAI</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Ptd 129028 Kota Masai, 81750 Mukim Plentong, Johor</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BANDAR SERI ALAM 2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Lot Ptd 111519 Bandar Seri Alam Mukim Plentong, 81750 Johor Bharu, Johor</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TMN CAHAYA MASAI</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>New Lot Ptd 160926 Hs (D) 338709, Taman Cahaya Masai, Mukim Plentong, 81750 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>JALAN KOTA MASAI 2</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Lot 136202 Hs(D) 277380, Taman Kota Masai, Mukim Plentong, 81700 Johor Bharu, Johor</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LEBUHRAYA PASIR GUDANG 1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Ptd 110919 &amp; 110910, Lebuhraya Pasir Gudang, Bandar Baru Kota Puteri, Masai, 81750 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>LEBUHRAYA PASIR GUDANG 2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Lot Ptd 166325 Hs(D) 330787 Mkm Of Plentong, 81700 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PERMAS JAYA 2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>Lot Ptd 100976, Taman Permas Jaya 2, 81750 Johor Bahru, Johor</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Kuala Lumpur</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>JALAN MASAI</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Lot Ptd 111466, Jalan Masai, Mukim Plentong, Daerah Johor Bahru, 81100 Johor Bharu, Johor</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Kuala Lumpur</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TAMAN BAYU SENIBONG</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Lot Ptd 148135 Hs(D) 270889 (New Lot No.Ptd 173047), Bayu Senibong, 81750 Plentong, Johor</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Kuala Lumpur</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>TAMAN BAYU PUTERI</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Lot Ptd 148144 Taman Bayu Putri Bandar Baru Permas Jaya, 81100 Johor Bharu, Johor</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Kuala Lumpur</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>TAMAN MOLEK</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Ptd 88326 Mukim Plentong, Taman Molek, 81100 Johor Bahru, Johor</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Kuala Lumpur</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TAMAN DESA JAYA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Lot 69921, Taman Desa Jaya, 81100 Johor Bahru, Johor</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Kuala Lumpur</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LEBUH DESA CEMERLANG</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Lot Ptd 177201, Taman Desa Cemerlang, Mukim Plentong, 81750 Johor Bahru, Johor</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Kuala Lumpur</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Lot Ptd 177201, Taman Desa Cemerlang, Mukim Plentong, 81750 Johor Bahru, Johor</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TMN PUTERI WANGSA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Lot Ptd 26080, Taman Putri Wangsa, Mukim Tebrau, 81800 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>JALAN STOREY</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Lot 367 Jalan Storey, Bukit Senyum, 80300 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>JALAN HAJI SAID</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Lot 1221/1, Jalan Haji Said, 70400 Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>Pasir Gudang, Johor</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Lot Ptd 26080, Taman Putri Wangsa, Mukim Tebrau, 81800 Johor Bahru, Johor</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SG UJONG</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Lot 3901, Jalan Sungai Ujong, 70000 Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>Pasir Gudang, Johor</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Lot 367 Jalan Storey, Bukit Senyum, 80300 Johor Bahru, Johor</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>JALAN RAHANG</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Lot 4054-A Jalan Tuanku Antah(Jalan Rahang), 70100 Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>Pasir Gudang, Johor</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>JALAN SEREMBAN-JELEBU</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Lot 15003-15008 Pt 7931 Jalan Seremban-Jelebu ( Jelebu Bound), 70400 Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>JLN LOBAK</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Lot 5890 Jalan Lobak, Seremban, 70100 Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>AMPANGAN 1 - AMPANGAN UTAMA, JLN K PILAH</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Lot 016021, Bt 3 1/2, Jalan Kuala Pilah, 70400 Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>JLN TUN DR ISMAIL</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Km 3.2 Jalan Tun Dr Ismail, 70200 Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SEREMBAN 2</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Lot Pt 10841 &amp; 10842, Mukim Rasah, Seremban Dua, 70300 Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TAMAN MARIDA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Lot 278 Taman Marida, Senawang, 70450 Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>RASAH JAYA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Lot 10066, Taman Rasah Jaya, 70300 Seremban, Negeri Sembilan</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Pasir Gudang, Johor</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>JALAN SENAWANG-PAROI</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Lot 1682, Jalan Senawang-Paroi, Mukim Ampangan, 70450 Seremban, Negeri Sembilan</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Pasir Gudang, Johor</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>S2 CITY PARK</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Lot C, Part Of Lot Pt 6283 Hs(D) 109226, Bandar Seremban 2, Mukim Rasah, 70300 Seremban, Negeri Sembilan</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Pasir Gudang, Johor</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MATAHARI HEIGHTS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Lot 1846 Pn 648 (Lot.Pt 4087 Hsd 154332) Mk.Ampangan, Matahari Height, Pst.Bdr Senawang, 70450 Seremban, Negeri Sembilan</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Pasir Gudang, Johor</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>RASAH</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Lot PT 25435, HS(D) 218453, Batu 3, Mambau, Mukim Rasah, Negeri Sembilan, 70300 Seremban, Negeri Sembilan</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Pasir Gudang, Johor</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MAMBAU</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Lot 4704, Batu 2 1/2, Jalan Seremban, Port Dickson, 70300 Seremban, Negeri Sembilan</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Pasir Gudang, Johor</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>LAVENDER HEIGHTS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Lot 33866 Pt 2244 Lavender Heights, Senawang, 70450 Seremban, Negeri Sembilan</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Pasir Gudang, Johor</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SENAWANG 2</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Lot 2172 , Jln Tampin-Seremban, Mukim Rantau, 70450 Seremban, Negeri Sembilan</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SENAWANG 1</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Batu 4 1/2, Jalan Tampin-Senawang, 70450 Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TUMPAT</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Lot 320, Mukim Selehong, Terbak, 16200 Tumpat, Kelantan</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Batu 4 1/2, Jalan Tampin-Senawang, 70450 Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PENGKALAN KUBOR</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Lot 996, Mukim Geting, Pengkalan Kubur, 16200 Tumpat, Kelantan</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>JALAN PANTAI CAHAYA BULAN</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Lot 993 Gm 913, Pantai Cahaya Bulan, Mukim Banggol, 15350 Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>PASIR PEKAN</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Lot 1748, Batu 2 1/2, Pasir Pekan, 16250 Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PASIR PEKAN HILIR</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>PT 3685, Jalan Besar Pasir Pekan, , 16250 Tumpat, Kelantan</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>JALAN SULTANAH ZAINAB</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Lot P.T 26, Jalan Sultanah Zainab, 15300 Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>JALAN SULTAN IBRAHIM</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Lot 35(5289G), Jalan Sultan Ibrahim, 15050 Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>TAMAN UDA MURNI</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Lot 745, Mukim Beting, Jalan Pengkalan Chepa, 15400 Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>DUSUN MUDA</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Lot 221-B, Seksyen 26, Jalan Dusun Muda, 15200 Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PINTU GENG</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>Lot 2614, Seksyen 64, Kg Pintu Geng, 15100 Kota Bharu, Kelantan</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SIMPANG 3 P/ CHEPA</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Lot Pt 247 - 250, 636, 635 &amp; 646, Simpang 3, Pengkalan Chepa, 16100 Kota Bharu, Kelantan</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>KM 3 JALAN KUALA KRAI</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>Lot 148, Km 3, Jln Kuala Krai, 15150 Kota Bharu, Kelantan</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>JALAN BAYAM</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>Lot 2712 Gm 1783, Jalan Bayam, 15200 , Kelantan</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>JLN PADANG TEMBAK</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>Lot Pt 623, Kawasan Perindustrian Pengkalan Chepa, Jalan Padang Tembak, 16100 Kota Bharu, Kelantan</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>KM 5 JLN SULTAN YAHYA PETRA</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>Lot 2556-2560, Km 5 Jalan Sultan Yahya Petra, 15200 Kota Bharu, Kelantan</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>BDR BARU TUNJONG</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>S/65, Lot 662, Lebuhraya Jalan Pasir Mas-Salor, 15100 Kota Bharu, Kelantan</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>KUBANG KERIAN</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>Lot 243 &amp; Lot 1310 Mukim Demit, Daerah Kubang Kerian, 15200 Kota Bharu, Kelantan</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>KASA</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Lot 1700, Mukim Kasa, 17000 Pasir Mas, Kelantan</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>BAGAN SAMAK</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Lot 6609, Bagan Samak, 34950 Bandar Bahru, Kedah</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>Tumpat, Kelantan</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Lot 1700, Mukim Kasa, 17000 Pasir Mas, Kelantan</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PARIT BUNTAR</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Lot 126, Daerah Kerian, Kawasan Perusahaan Parit Buntar, 34200 Parit Buntar, Perak</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>Tumpat, Kelantan</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>KAMPUNG KEDAH</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Lot Pt 3491 Hs(M) 1307 Kg Kedah, Mukim Parit Buntar, District Of Kerian, Perak, 34200 Parit Buntar, Perak</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Tumpat, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SIMPANG LIMA, PARIT BUNTAR</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Lot 7850, Mukim Parit Buntar, Daerah Kubang Kerian, Jalan Taiping, Simpang Lima, 34200 Parit Buntar, Perak</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Tumpat, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>NIBONG TEBAL, SPS</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Lot 4107, Mukim 9, Jalan Besar, 14300 Nibong Tebal, Pulau Pinang</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Tumpat, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SUNGAI BAKAP, SPS</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Lot 573 &amp; 574, Mukim Ii Sungai Bakap, 14200 Sg Jawi, Pulau Pinang</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Tumpat, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SG BAKAP LAYBY</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Lot 20100, Bersebelahan Hentian Rehat Sungai Bakap (Arah Selatan), Lebuhraya Utara Selatan, 14100 Seberang Perai, Pulau Pinang</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Tumpat, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>KUALA KURAU</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Lot 3652, Simpang Tiga, 34350 Kuala Kurau, Perak</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Tumpat, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>TAMAN KELADI</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Pt 11615 Taman Keladi Daerah Kuala Muda, 08000 Sungai Petani, Kedah</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Tumpat, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>BAGAN SERAI 2</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>Lot 11772 Batu 1, Jalan Siakap, 34300 Bagan Serai, Perak</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Tumpat, Kelantan</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SIMPANG AMPAT 2</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>Lot 3609, Mukim 15, Simpang Empat, 14100 Seberang Perai Selatan, Pulau Pinang</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Tumpat, Kelantan</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>BAGAN SERAI 1</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>Km 16 Jalan Taiping, Bagan Serai, 34300 Bagan Serai, Perak</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Tumpat, Kelantan</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>BALIK PULAU 2</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>Lot 459, Mukim 6, Genting, 11000 Balik Pulau, Pulau Pinang</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Tumpat, Kelantan</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>BUKIT GAMBIR</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>Lot 2177, Bukit Gambir, 84800 Muar, Johor</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>Tumpat, Kelantan</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SIMPANG AMPAT 1</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>1401, Main Road Simpang Ampat, 14100 Seberang Perai Selat, Pulau Pinang</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Tumpat, Kelantan</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>BANDAR TASEK MUTIARA</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>Lot 5597, Grn 67406, Bandar Tasek Mutiara, Mukim 15, 14120 Seberang Prai Selatan, Pulau Pinang</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Tumpat, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ALMA</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Lot 697, Mk 15, Jalan Rozhan, Alma, 14000 Bukit Mertajam, Pulau Pinang</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Tumpat, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>TOK KANGAR</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Lot 6642, Jalan Tok Kangar, Juru, 14100 Simpang Ampat, Pulau Pinang</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Tumpat, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>JALAN ROCK</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Lot 1384, Section 10, Kcld, Rock Road, 93200 Kuching, Sarawak</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
         <is>
           <t>Bandar Baharu, Kedah</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Lot 697, Mk 15, Jalan Rozhan, Alma, 14000 Bukit Mertajam, Pulau Pinang</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SRI AMAN</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Lot 1123 &amp; 1124, Jalan Sabu, 95000 Sri Aman, Sarawak</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
         <is>
           <t>Bandar Baharu, Kedah</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Lot 6642, Jalan Tok Kangar, Juru, 14100 Simpang Ampat, Pulau Pinang</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>BETONG</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Lot 40 Block 5 Batu Api Land District Jalan Sri Aman Sarikei, 95700 Betong, Sarawak</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Bandar Baharu, Kedah</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>LACHAU</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Plot 1 (Survey Lot 1095) of Lot 955, Block 9, Selanjan Land District, Lachau, 9500 Sri Aman , 95000 Sri Aman, Sarawak</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
         <is>
           <t>Bandar Baharu, Kedah</t>
         </is>
